--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,23 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1866</v>
+        <v>447</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,51 +496,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309</v>
+        <v>1581</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>1866</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -563,124 +563,124 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>885</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612</v>
+        <v>873</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>177</v>
+        <v>885</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -692,28 +692,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
@@ -776,95 +776,95 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>873</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1581</v>
+        <v>522</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -876,12 +876,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,67 +468,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1581</v>
+        <v>612</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1866</v>
+        <v>885</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,84 +552,84 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
@@ -664,39 +664,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>885</v>
+        <v>1581</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -708,12 +708,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
@@ -748,51 +748,51 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576</v>
+        <v>204</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -804,79 +804,79 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>1866</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,163 +468,163 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330</v>
+        <v>873</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885</v>
+        <v>612</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>522</v>
+        <v>885</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -636,163 +636,163 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>873</v>
+        <v>1866</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1581</v>
+        <v>309</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381</v>
+        <v>1581</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -804,51 +804,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576</v>
+        <v>447</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,28 +860,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,219 +468,219 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873</v>
+        <v>612</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>885</v>
+        <v>381</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330</v>
+        <v>873</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1866</v>
+        <v>204</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -692,163 +692,163 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1581</v>
+        <v>885</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>1581</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>447</v>
+        <v>1866</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,11 +860,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381</v>
+        <v>576</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -876,12 +876,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,140 +468,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>612</v>
+        <v>1581</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378</v>
+        <v>576</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
@@ -636,51 +636,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -692,79 +692,79 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330</v>
+        <v>885</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>885</v>
+        <v>381</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>309</v>
+        <v>1866</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -776,39 +776,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1581</v>
+        <v>330</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -832,23 +832,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1866</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,28 +860,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,123 +468,123 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581</v>
+        <v>885</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576</v>
+        <v>873</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -608,123 +608,123 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873</v>
+        <v>309</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378</v>
+        <v>1866</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>885</v>
+        <v>204</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381</v>
+        <v>576</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -736,40 +736,40 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1866</v>
+        <v>1581</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
@@ -804,11 +804,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -820,7 +820,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -860,28 +860,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,135 +468,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -608,23 +608,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309</v>
+        <v>576</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -636,95 +636,95 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1866</v>
+        <v>612</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>612</v>
+        <v>330</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>1581</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576</v>
+        <v>381</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -736,152 +736,152 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1581</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>330</v>
+        <v>1866</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,84 +468,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873</v>
+        <v>576</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
@@ -580,23 +580,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -608,56 +608,56 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576</v>
+        <v>204</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612</v>
+        <v>1581</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
@@ -692,107 +692,107 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1581</v>
+        <v>1866</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1866</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -804,84 +804,84 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378</v>
+        <v>612</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204</v>
+        <v>873</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -468,28 +468,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576</v>
+        <v>1581</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
+          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
@@ -524,11 +524,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -540,35 +540,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
+          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885</v>
+        <v>447</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
+          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,11 +580,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
+          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -608,79 +608,79 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204</v>
+        <v>873</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
+          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1581</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
+          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>885</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
+          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -692,107 +692,107 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1866</v>
+        <v>330</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
+          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
+          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
+          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>1866</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
+          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -804,84 +804,84 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>612</v>
+        <v>309</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
+          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>378</v>
+        <v>576</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
+          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>['parameter_start_position', 'parameter_end_position']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873</v>
+        <v>612</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
+          <t>633d065f-96c0-4c4b-8112-302990575763</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,133 +454,83 @@
           <t>Activities</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>First Subprocess ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Parameter Keys</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581</v>
+        <v>204</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27958fc0-4484-41ff-9260-e76f8a83a7cd</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>570d0814-988a-4856-bc82-249db6050f5e</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_burn_workpiece_size', 'parameter_quantity']</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378</v>
+        <v>885</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>16d2bd16-3be9-4daa-a4ad-edb7f5818fcb</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['parameter_use_nfc', 'parameter_start_position', 'parameter_end_position', 'parameter_sorting_machine_ejection_position']</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8febb390-19ce-4d63-a018-d9617a8bb1b7</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -591,297 +541,187 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7316381c-127f-43cb-956b-ca72e60bc6ab</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873</v>
+        <v>576</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>b179f074-238d-4666-b50f-9a8959d0a48e</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['parameter_hbw_slot', 'parameter_use_nfc']</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ad6c9c0b-f3ba-45e7-b887-b96bf0260887</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>885</v>
+        <v>381</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4d198444-6633-4218-b1f7-ca67ec666360</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330</v>
+        <v>873</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1ab1350e-cba4-42ea-8efd-a0b01e88380e</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21559c95-22a5-4c8b-9424-dbbc14a9f63b</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position', 'parameter_quantity']</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>522</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>a8d0fcdd-46c6-44f8-8b19-cecd803d356f</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1866</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0e7b5a4c-4c03-47b2-96fd-e401ed7fbca9</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309</v>
+        <v>1866</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>722f5091-ed89-45a3-89c7-4962901b6c14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576</v>
+        <v>1581</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>167db95e-ae8b-4ae8-ac11-055401e11894</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['parameter_start_position', 'parameter_end_position']</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612</v>
+        <v>447</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>633d065f-96c0-4c4b-8112-302990575763</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['parameter_burn_workpiece_size', 'parameter_burn_workpiece_thickness']</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,270 +458,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>1581</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885</v>
+        <v>309</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>612</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>873</v>
+        <v>381</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>576</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330</v>
+        <v>1866</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866</v>
+        <v>378</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1581</v>
+        <v>873</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447</v>
+        <v>885</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,36 +458,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1581</v>
+        <v>1866</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
@@ -512,216 +512,216 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612</v>
+        <v>204</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>873</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>612</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381</v>
+        <v>885</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1866</v>
+        <v>576</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>873</v>
+        <v>330</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>885</v>
+        <v>1581</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,227 +458,227 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1866</v>
+        <v>447</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378</v>
+        <v>576</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522</v>
+        <v>1866</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381</v>
+        <v>1581</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>873</v>
+        <v>309</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>612</v>
+        <v>381</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330</v>
+        <v>885</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576</v>
+        <v>378</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177</v>
+        <v>612</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -692,36 +692,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1581</v>
+        <v>330</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,180 +458,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>447</v>
+        <v>885</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576</v>
+        <v>1581</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1866</v>
+        <v>204</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>522</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1581</v>
+        <v>873</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>873</v>
+        <v>1866</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>885</v>
+        <v>447</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
@@ -656,61 +656,61 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177</v>
+        <v>522</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -721,7 +721,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -476,245 +476,245 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1581</v>
+        <v>612</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873</v>
+        <v>1581</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1866</v>
+        <v>204</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>378</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177</v>
+        <v>873</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>522</v>
+        <v>1866</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885</v>
+        <v>1866</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -476,54 +476,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612</v>
+        <v>378</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378</v>
+        <v>612</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330</v>
+        <v>873</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
@@ -584,72 +584,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204</v>
+        <v>885</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
@@ -674,54 +674,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>873</v>
+        <v>330</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1866</v>
+        <v>447</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,270 +458,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1866</v>
+        <v>330</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378</v>
+        <v>873</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>873</v>
+        <v>204</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1581</v>
+        <v>885</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>576</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>885</v>
+        <v>522</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>522</v>
+        <v>1581</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330</v>
+        <v>1866</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>

--- a/Data/IoT enriched event log paper/tables/resources_info.xlsx
+++ b/Data/IoT enriched event log paper/tables/resources_info.xlsx
@@ -458,270 +458,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>vgr_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330</v>
+        <v>1866</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hbw_1</t>
+          <t>mm_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>873</v>
+        <v>576</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mm_1</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>wt_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wt_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>885</v>
+        <v>330</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>ov_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177</v>
+        <v>612</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/ov/burn, /ov/temper</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522</v>
+        <v>309</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>hbw_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1581</v>
+        <v>873</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/hbw/get_empty_bucket, /hbw/store, /hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vgr_1</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866</v>
+        <v>1581</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>309</v>
+        <v>885</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ov_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612</v>
+        <v>447</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/ov/burn, /ov/temper</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
